--- a/SANTANDER-EXCEL-PLANILHA-DE-INVESTIMENTO.xlsx
+++ b/SANTANDER-EXCEL-PLANILHA-DE-INVESTIMENTO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TEST-SINC-24-08\@Cursos\Santander-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TEST-SINC-24-08\@Cursos\Santander-Excel\repo-local\excel-santander\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB41F9DB-14CB-452A-9EA8-F8C61BF164D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E23A56C-19B5-469B-89F9-5BB22698B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="327" xr2:uid="{AA247B9D-33CF-4981-AD17-8584C75F6784}"/>
   </bookViews>
@@ -726,7 +726,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -824,67 +824,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
@@ -1223,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D152E-8F41-4228-ACBE-788553D425A3}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,31 +1244,31 @@
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="23">
-        <v>3571.61</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="24">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="25">
         <f>D4*30%</f>
-        <v>1071.4829999999999</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1283,40 +1277,40 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="27"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="28"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="28"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="28"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="25">
         <v>1071</v>
       </c>
@@ -1324,38 +1318,38 @@
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="30">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="31">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>29164.254980482885</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="32">
         <f>patrimonio*rendimento_carteira</f>
         <v>174.98552988289731</v>
@@ -1495,7 +1489,7 @@
         <f>VLOOKUP($C$25&amp;"-"&amp;B29,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.32</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="39">
         <f>C29*$C$26</f>
         <v>342.72</v>
       </c>
@@ -1508,7 +1502,7 @@
         <f>VLOOKUP($C$25&amp;"-"&amp;B30,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="39">
         <f t="shared" ref="D30:D34" si="0">C30*$C$26</f>
         <v>374.84999999999997</v>
       </c>
@@ -1521,7 +1515,7 @@
         <f>VLOOKUP($C$25&amp;"-"&amp;B31,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="39">
         <f t="shared" si="0"/>
         <v>85.68</v>
       </c>
@@ -1534,7 +1528,7 @@
         <f>VLOOKUP($C$25&amp;"-"&amp;B32,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="39">
         <f t="shared" si="0"/>
         <v>53.550000000000004</v>
       </c>
@@ -1547,7 +1541,7 @@
         <f>VLOOKUP($C$25&amp;"-"&amp;B33,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="39">
         <f t="shared" si="0"/>
         <v>107.10000000000001</v>
       </c>
@@ -1560,7 +1554,7 @@
         <f>VLOOKUP($C$25&amp;"-"&amp;B34,Planilha2!$A:$D,4,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="39">
         <f t="shared" si="0"/>
         <v>10710</v>
       </c>
@@ -1623,189 +1617,189 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="e">
+      <c r="A3" t="e">
         <f>Planilha1!C28+Planilha1!C28+Planilha1!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="7">
         <v>0.3</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="43">
         <f>Planilha1!C29</f>
         <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="str">
+      <c r="A4" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="str">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HIBRIDOS</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="str">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="str">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="str">
+      <c r="A8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIA</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="str">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="7">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="7">
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HIBRIDOS</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="7">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="str">
+      <c r="A14" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIA</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="40">
         <v>10</v>
       </c>
     </row>
@@ -1820,7 +1814,7 @@
       <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1835,7 +1829,7 @@
       <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="7">
         <v>0.1</v>
       </c>
     </row>
@@ -1850,7 +1844,7 @@
       <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="7">
         <v>0.05</v>
       </c>
     </row>
@@ -1865,7 +1859,7 @@
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="7">
         <v>0.05</v>
       </c>
     </row>
@@ -1880,7 +1874,7 @@
       <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="43">
         <v>0.2</v>
       </c>
     </row>
@@ -1895,7 +1889,7 @@
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="43">
         <v>0.1</v>
       </c>
     </row>

--- a/SANTANDER-EXCEL-PLANILHA-DE-INVESTIMENTO.xlsx
+++ b/SANTANDER-EXCEL-PLANILHA-DE-INVESTIMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TEST-SINC-24-08\@Cursos\Santander-Excel\repo-local\excel-santander\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E23A56C-19B5-469B-89F9-5BB22698B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D6467C-34F8-435B-B39F-0A85342D1C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="327" xr2:uid="{AA247B9D-33CF-4981-AD17-8584C75F6784}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>INVESTIMENTO MENSAL</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Sugestão investimento (30%)</t>
+  </si>
+  <si>
+    <t>Patrimonio ocumulado</t>
+  </si>
+  <si>
+    <t>Conservador-Papel</t>
+  </si>
+  <si>
+    <t>SOMA DOS INVESTIMENTOS:</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.000;[Red]\-&quot;R$&quot;\ #,##0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +267,31 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +339,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -726,18 +765,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,9 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,7 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
@@ -879,6 +911,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
@@ -1215,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D152E-8F41-4228-ACBE-788553D425A3}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,335 +1278,356 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="55">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55"/>
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="23">
+      <c r="C4" s="44"/>
+      <c r="D4" s="20">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="24">
+      <c r="C5" s="48"/>
+      <c r="D5" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54" t="s">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="25">
+      <c r="C6" s="50"/>
+      <c r="D6" s="22">
         <f>D4*30%</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="50" t="s">
+    <row r="7" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>2</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="27"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="28"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="28"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="28"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="56" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="24"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="25"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="25"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="56"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="25"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="56"/>
+      <c r="B12" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="25">
+      <c r="C12" s="52"/>
+      <c r="D12" s="22">
         <v>1071</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="58" t="s">
+    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="56"/>
+      <c r="B13" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="29">
+      <c r="C13" s="54"/>
+      <c r="D13" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55"/>
+      <c r="B14" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="30">
+      <c r="C14" s="54"/>
+      <c r="D14" s="27">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="31">
+      <c r="C15" s="40"/>
+      <c r="D15" s="28">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>29164.254980482885</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="B16" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="32">
-        <f>patrimonio*rendimento_carteira</f>
-        <v>174.98552988289731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="29">
+        <f>rendimento_carteira</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="57">
         <v>2</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <f>FV($D$14,$A19*12,$D$12*-1)</f>
         <v>29164.254980482885</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <f>C19*rendimento_carteira</f>
         <v>174.98552988289731</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="57">
         <v>5</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <f>FV($D$14,$A20*12,$D$12*-1)</f>
         <v>89754.10473376578</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <f>C20*rendimento_carteira</f>
         <v>538.52462840259466</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="57">
         <v>10</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <f>FV($D$14,$A21*12,$D$12*-1)</f>
         <v>260743.1605588909</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <f>C21*rendimento_carteira</f>
         <v>1564.4589633533453</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57">
         <v>20</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <f>FV($D$14,$A22*12,$D$12*-1)</f>
         <v>1207069.4718227184</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <f>C22*rendimento_carteira</f>
         <v>7242.4168309363104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57">
         <v>30</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <f>FV($D$14,$A23*12,$D$12*-1)</f>
         <v>4641612.0518492404</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <f>C23*rendimento_carteira</f>
         <v>27849.672311095444</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="57"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="58">
+        <v>4</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="C25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="B26" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="37">
-        <f>aporte</f>
-        <v>1071</v>
+      <c r="C26" s="60">
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="7">
-        <f>VLOOKUP($C$25&amp;"-"&amp;B29,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.32</v>
-      </c>
-      <c r="D29" s="39">
+      <c r="C29" s="5">
+        <f>VLOOKUP(C$25&amp;"-"&amp;B29,Planilha2!A:D,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="35">
         <f>C29*$C$26</f>
-        <v>342.72</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="7">
-        <f>VLOOKUP($C$25&amp;"-"&amp;B30,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="D30" s="39">
+      <c r="C30" s="5">
+        <f>VLOOKUP(C$25&amp;"-"&amp;B30,Planilha2!A:D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="35">
         <f t="shared" ref="D30:D34" si="0">C30*$C$26</f>
-        <v>374.84999999999997</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="7">
-        <f>VLOOKUP($C$25&amp;"-"&amp;B31,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D31" s="39">
+      <c r="C31" s="5">
+        <f>VLOOKUP(C$25&amp;"-"&amp;B31,Planilha2!A:D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="35">
         <f t="shared" si="0"/>
-        <v>85.68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="7">
-        <f>VLOOKUP($C$25&amp;"-"&amp;B32,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D32" s="39">
+      <c r="C32" s="5">
+        <f>VLOOKUP(C$25&amp;"-"&amp;B32,Planilha2!A:D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="35">
         <f t="shared" si="0"/>
-        <v>53.550000000000004</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="7">
-        <f>VLOOKUP($C$25&amp;"-"&amp;B33,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="39">
+      <c r="C33" s="5">
+        <f>VLOOKUP(C$25&amp;"-"&amp;B33,Planilha2!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="35">
         <f t="shared" si="0"/>
-        <v>107.10000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="7">
-        <f>VLOOKUP($C$25&amp;"-"&amp;B34,Planilha2!$A:$D,4,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="D34" s="39">
+      <c r="C34" s="5">
+        <f>VLOOKUP(C$25&amp;"-"&amp;B34,Planilha2!A:D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="35">
         <f t="shared" si="0"/>
-        <v>10710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="8">
+      <c r="C35" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="62">
         <f>SUM(D29:D34)</f>
-        <v>11673.9</v>
-      </c>
-    </row>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B15:C15"/>
@@ -1583,6 +1646,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1590,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C7F461-AA8E-48D9-A890-A9B24DB9FBCB}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1673,7 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
@@ -1617,25 +1681,24 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
-        <f>Planilha1!C28+Planilha1!C28+Planilha1!C28</f>
-        <v>#VALUE!</v>
+      <c r="A3" t="s">
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="38">
         <v>0.3</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="38">
         <f>Planilha1!C29</f>
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,10 +1709,10 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="38">
         <v>0.5</v>
       </c>
     </row>
@@ -1661,10 +1724,10 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="38">
         <v>0.1</v>
       </c>
     </row>
@@ -1676,10 +1739,10 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="38">
         <v>0.1</v>
       </c>
     </row>
@@ -1691,25 +1754,25 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="str">
+      <c r="A8" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIA</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="59">
         <v>0</v>
       </c>
     </row>
@@ -1721,10 +1784,10 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="38">
         <v>0.32</v>
       </c>
     </row>
@@ -1736,10 +1799,10 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="38">
         <v>0.35</v>
       </c>
     </row>
@@ -1751,10 +1814,10 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="38">
         <v>0.08</v>
       </c>
     </row>
@@ -1766,10 +1829,10 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="38">
         <v>0.05</v>
       </c>
     </row>
@@ -1781,26 +1844,26 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="38">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="str">
+      <c r="A14" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIA</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="40">
-        <v>10</v>
+      <c r="D14" s="59">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,10 +1874,10 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="38">
         <v>0.5</v>
       </c>
     </row>
@@ -1826,10 +1889,10 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="38">
         <v>0.1</v>
       </c>
     </row>
@@ -1841,10 +1904,10 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="38">
         <v>0.05</v>
       </c>
     </row>
@@ -1856,10 +1919,10 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="38">
         <v>0.05</v>
       </c>
     </row>
@@ -1871,10 +1934,10 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="38">
         <v>0.2</v>
       </c>
     </row>
@@ -1886,10 +1949,10 @@
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="38">
         <v>0.1</v>
       </c>
     </row>

--- a/SANTANDER-EXCEL-PLANILHA-DE-INVESTIMENTO.xlsx
+++ b/SANTANDER-EXCEL-PLANILHA-DE-INVESTIMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TEST-SINC-24-08\@Cursos\Santander-Excel\repo-local\excel-santander\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D6467C-34F8-435B-B39F-0A85342D1C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636D52EA-6E04-49E7-8B44-9F85C9B0036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="327" xr2:uid="{AA247B9D-33CF-4981-AD17-8584C75F6784}"/>
   </bookViews>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D152E-8F41-4228-ACBE-788553D425A3}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
